--- a/Results/Result_Document type_ScopWoS.xlsx
+++ b/Results/Result_Document type_ScopWoS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2395804\PhD R code\Scopus-Web-Of-Science-Merger_Thesis_VG\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F00902E3-2BB6-4FE7-AE8C-72D612A55039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AAF01F4-13D9-43AC-835D-3D62487B7F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Result_Document type_ScopWoS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>DocumentType</t>
   </si>
@@ -70,9 +70,6 @@
     <t>PROCEEDINGS PAPER</t>
   </si>
   <si>
-    <t>Scopus exclusive</t>
-  </si>
-  <si>
     <t>Article</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
     <t>Communication</t>
   </si>
   <si>
+    <t>Conference Material</t>
+  </si>
+  <si>
     <t>Journal</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>Poster</t>
   </si>
   <si>
+    <t>Proceedings papers</t>
+  </si>
+  <si>
     <t>Report</t>
   </si>
   <si>
@@ -115,13 +118,67 @@
     <t>Webpage</t>
   </si>
   <si>
-    <t>IFSMS</t>
-  </si>
-  <si>
-    <t>Conference Material</t>
-  </si>
-  <si>
-    <t>Proceedings papers</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>185 (44.4)</t>
+  </si>
+  <si>
+    <t>Book/Book chapter</t>
+  </si>
+  <si>
+    <t>19 (4.6)</t>
+  </si>
+  <si>
+    <t>Conference Material/Meeting Abstract/Proceedings paper</t>
+  </si>
+  <si>
+    <t>90 (21.6)</t>
+  </si>
+  <si>
+    <t>8 (1.9)</t>
+  </si>
+  <si>
+    <t>Retracted/Correction</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Short survey</t>
+  </si>
+  <si>
+    <t>Editorial Material</t>
+  </si>
+  <si>
+    <t>1 (0.2)</t>
+  </si>
+  <si>
+    <t>Erratum</t>
+  </si>
+  <si>
+    <t>Non-Specified</t>
+  </si>
+  <si>
+    <t>13 (3.1)</t>
+  </si>
+  <si>
+    <t>3 (0.7)</t>
+  </si>
+  <si>
+    <t>Web page/ Web site</t>
+  </si>
+  <si>
+    <t>74 (17.8)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>23 (5.5)</t>
   </si>
 </sst>
 </file>
@@ -129,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +323,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -563,10 +635,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -609,57 +732,67 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -971,897 +1104,1243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2">
+        <f>SUM(H2:H15)</f>
+        <v>1569</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
+        <f>SUM(K2:K15)</f>
+        <v>867</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
+        <f t="shared" ref="N1:Q1" si="0">SUM(N2:N15)</f>
+        <v>1756</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1139</v>
-      </c>
-      <c r="C2" s="2">
-        <f>B2/$C$1</f>
-        <v>0.76136363636363635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4">
+        <f>B2</f>
+        <v>1194</v>
+      </c>
+      <c r="I2" s="5">
+        <v>76.099426386233304</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>CONCATENATE(H2," (",ROUND(I2,1),")")</f>
+        <v>1194 (76.1)</v>
+      </c>
+      <c r="K2" s="4">
+        <f>B13</f>
+        <v>663</v>
+      </c>
+      <c r="L2" s="5">
+        <f>K2/$K$1*100</f>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f>CONCATENATE(K2," (",ROUND(L2,1),")")</f>
+        <v>663 (76.5)</v>
+      </c>
+      <c r="N2" s="4">
+        <f>B23</f>
+        <v>1318</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2/$N$1*100</f>
+        <v>75.05694760820046</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>CONCATENATE(N2," (",ROUND(O2,1),")")</f>
+        <v>1318 (75.1)</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>B37</f>
+        <v>457</v>
+      </c>
+      <c r="R2" s="5">
+        <f>Q2/$Q$1*100</f>
+        <v>73.11999999999999</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>CONCATENATE(Q2," (",ROUND(R2,1),")")</f>
+        <v>457 (73.1)</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="0">B3/$C$1</f>
-        <v>5.2807486631016046E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4">
+        <f>B3</f>
+        <v>80</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.0987890376035692</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J12" si="1">CONCATENATE(H3," (",ROUND(I3,1),")")</f>
+        <v>80 (5.1)</v>
+      </c>
+      <c r="K3" s="4">
+        <f>B14</f>
+        <v>19</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L11" si="2">K3/$K$1*100</f>
+        <v>2.1914648212226067</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ref="M3:M11" si="3">CONCATENATE(K3," (",ROUND(L3,1),")")</f>
+        <v>19 (2.2)</v>
+      </c>
+      <c r="N3" s="4">
+        <f>B24</f>
+        <v>86</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O12" si="4">N3/$N$1*100</f>
+        <v>4.8974943052391797</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P11" si="5">CONCATENATE(N3," (",ROUND(O3,1),")")</f>
+        <v>86 (4.9)</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>B38</f>
+        <v>45</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R15" si="6">Q3/$Q$1*100</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S15" si="7">CONCATENATE(Q3," (",ROUND(R3,1),")")</f>
+        <v>45 (7.2)</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11029411764705882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4">
+        <f>B4+B5</f>
+        <v>176</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11.217335882727852</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>176 (11.2)</v>
+      </c>
+      <c r="K4" s="4">
+        <f>B18+B20</f>
+        <v>113</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>13.033448673587081</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>113 (13)</v>
+      </c>
+      <c r="N4" s="4">
+        <f>B25+B30+B32</f>
+        <v>215</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="4"/>
+        <v>12.24373576309795</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>215 (12.2)</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>B39+B42+B44</f>
+        <v>85</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="6"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>85 (13.6)</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3368983957219251E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4">
+        <f>B10</f>
+        <v>85</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.4174633524537921</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>85 (5.4)</v>
+      </c>
+      <c r="K5" s="4">
+        <f>B21</f>
+        <v>55</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="2"/>
+        <v>6.3437139561707028</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>55 (6.3)</v>
+      </c>
+      <c r="N5" s="4">
+        <f>B34</f>
+        <v>99</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="4"/>
+        <v>5.6378132118451028</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>99 (5.6)</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>B45</f>
+        <v>21</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="6"/>
+        <v>3.36</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>21 (3.4)</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6737967914438501E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.3734862970044617E-2</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (0.1)</v>
+      </c>
+      <c r="K6" s="4">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11534025374855825</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1 (0.1)</v>
+      </c>
+      <c r="N6" s="4">
+        <f>B26+B33</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11389521640091116</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2 (0.1)</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6791443850267376E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="4">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.3734862970044617E-2</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (0.1)</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <f>B35</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="4"/>
+        <v>5.6947608200455579E-2</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1 (0.1)</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1363636363636364E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4">
+        <f>B5</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.12746972594008923</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (0.1)</v>
+      </c>
+      <c r="K8" s="4">
+        <f>B16</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69204152249134954</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6 (0.7)</v>
+      </c>
+      <c r="N8" s="4">
+        <f>B27</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17084282460136674</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3 (0.2)</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>B40</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>1 (0.2)</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6844919786096253E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.25493945188017847</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (0.3)</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <f>B28</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22779043280182232</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4 (0.2)</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>79</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2807486631016046E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <f>B7</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.44614404079031234</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7 (0.4)</v>
+      </c>
+      <c r="K10" s="4">
+        <f>B17</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23068050749711649</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2 (0.2)</v>
+      </c>
+      <c r="N10" s="4">
+        <f>B29</f>
+        <v>9</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.51252847380410027</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9 (0.5)</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>B41</f>
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.32</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>2 (0.3)</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6844919786096253E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4">
+        <f>B8</f>
+        <v>17</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.0834926704907584</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>17 (1.1)</v>
+      </c>
+      <c r="K11" s="4">
+        <f>B19</f>
+        <v>8</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92272202998846597</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8 (0.9)</v>
+      </c>
+      <c r="N11" s="4">
+        <f>B31</f>
+        <v>17</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.96810933940774491</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>17 (1)</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>B43</f>
+        <v>14</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="6"/>
+        <v>2.2399999999999998</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>14 (2.2)</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.12746972594008923</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (0.1)</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <f>H12</f>
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11389521640091116</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>CONCATENATE(N12," (",ROUND(O12,1),")")</f>
+        <v>2 (0.1)</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>663</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>619</v>
-      </c>
-      <c r="C14" s="2">
-        <f>B14/$C$13</f>
-        <v>0.76137761377613777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:C22" si="1">B15/$C$13</f>
-        <v>2.3370233702337023E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2300123001230013E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3800738007380072E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4600246002460025E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5990159901599015E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70">
         <v>8</v>
       </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>9.8400984009840101E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>98</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12054120541205413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7810578105781059E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
-        <f>SUM(B25:B38)</f>
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1255</v>
-      </c>
-      <c r="C25" s="2">
-        <f>B25/$C$24</f>
-        <v>0.74970131421744324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
         <v>3</v>
       </c>
-      <c r="B26">
-        <v>85</v>
-      </c>
-      <c r="C26" s="2">
-        <f>B26/$C$24</f>
-        <v>5.0776583034647549E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>164</v>
-      </c>
-      <c r="C27" s="2">
-        <f>B27/$C$24</f>
-        <v>9.7968936678614102E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <f>B28/$C$24</f>
-        <v>5.9737156511350056E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <f>B29/$C$24</f>
-        <v>1.7921146953405018E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <f>B30/$C$24</f>
-        <v>2.3894862604540022E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2">
-        <f>B31/$C$24</f>
-        <v>5.3763440860215058E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2">
-        <f>B32/$C$24</f>
-        <v>7.1684587813620072E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <f>B33/$C$24</f>
-        <v>1.1947431302270011E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2">
-        <f>B34/$C$24</f>
-        <v>1.0155316606929509E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2">
-        <f>B35/$C$24</f>
-        <v>1.7921146953405017E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <f>B36/$C$24</f>
-        <v>5.9737156511350056E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>90</v>
-      </c>
-      <c r="C37" s="2">
-        <f>B37/$C$24</f>
-        <v>5.3763440860215055E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <f>B38/$C$24</f>
-        <v>5.9737156511350056E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1">
-        <f>SUM(B41:B49)</f>
-        <v>594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>431</v>
-      </c>
-      <c r="C41" s="2">
-        <f>B41/$C$40</f>
-        <v>0.72558922558922556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" ref="C42:C49" si="2">B42/$C$40</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>61</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1026936026936027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6835016835016834E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3670033670033669E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3468013468013467E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3569023569023569E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2">
-        <f t="shared" si="2"/>
-        <v>2.5252525252525252E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>18</v>
-      </c>
-      <c r="C49" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1">
-        <f>SUM(B52:B56)</f>
-        <v>287</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>241</v>
-      </c>
-      <c r="C52" s="2">
-        <f>B52/$C$51</f>
-        <v>0.83972125435540068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" ref="C53:C56" si="3">B53/$C$51</f>
-        <v>3.484320557491289E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="3"/>
-        <v>7.3170731707317069E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0452961672473868E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1811846689895474E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="1">
-        <f>SUM(B59:B75)</f>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59">
-        <v>185</v>
-      </c>
-      <c r="C59" s="2">
-        <f t="shared" ref="C59:E75" si="4">B59/$C$58</f>
-        <v>0.44364508393285373</v>
-      </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>31</v>
       </c>
-      <c r="E59">
-        <f>SUM(B63,B70)</f>
-        <v>90</v>
-      </c>
-      <c r="F59" s="4">
-        <f>E59/$C$58</f>
-        <v>0.21582733812949639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60">
-        <v>19</v>
-      </c>
-      <c r="C60" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5563549160671464E-2</v>
-      </c>
-      <c r="E60">
-        <f>SUM(B61,B62,B64,B66,B67,B69,B71,)</f>
-        <v>23</v>
-      </c>
-      <c r="F60" s="4">
-        <f>E60/$C$58</f>
-        <v>5.5155875299760189E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3980815347721821E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1942446043165471E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9184652278177457E-2</v>
-      </c>
-      <c r="F63" s="3">
-        <f>C59+F59+C60+C63+C65+C64+C75+C74+C73+F60</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3980815347721821E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3980815347721821E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1990407673860911E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1942446043165471E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3980815347721821E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3980815347721821E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70">
-        <v>82</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.19664268585131894</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71">
-        <v>9</v>
-      </c>
-      <c r="C71" s="2">
-        <f t="shared" si="4"/>
-        <v>2.1582733812949641E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>28</v>
-      </c>
       <c r="B72">
-        <v>8</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9184652278177457E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1942446043165471E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74">
         <v>74</v>
-      </c>
-      <c r="C74" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17745803357314149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>13</v>
-      </c>
-      <c r="C75" s="2">
-        <f t="shared" si="4"/>
-        <v>3.117505995203837E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Result_Document type_ScopWoS.xlsx
+++ b/Results/Result_Document type_ScopWoS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2395804\PhD R code\Scopus-Web-Of-Science-Merger_Thesis_VG\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AAF01F4-13D9-43AC-835D-3D62487B7F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422612F-DCD2-4E22-9047-29CB56616FAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="7335" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_Document type_ScopWoS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,9 +195,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -746,7 +757,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,11 +1285,11 @@
         <v>45</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" ref="R3:R15" si="6">Q3/$Q$1*100</f>
+        <f t="shared" ref="R3:R11" si="6">Q3/$Q$1*100</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S15" si="7">CONCATENATE(Q3," (",ROUND(R3,1),")")</f>
+        <f t="shared" ref="S3:S11" si="7">CONCATENATE(Q3," (",ROUND(R3,1),")")</f>
         <v>45 (7.2)</v>
       </c>
       <c r="T3" s="4" t="s">
